--- a/Calibration/Encoder calibration/Encoder calibration.xlsx
+++ b/Calibration/Encoder calibration/Encoder calibration.xlsx
@@ -491,7 +491,7 @@
   <dimension ref="E3:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
